--- a/SuppXLS/Scen_ElasticDem.xlsx
+++ b/SuppXLS/Scen_ElasticDem.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\VEDA2.0Web\Demos_012\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B833FB84-6443-4352-B341-C7B8D267120A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABEE78C-FAE7-465E-9750-5B13DDC0EA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elasticity_Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -117,9 +109,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -274,7 +266,7 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -322,20 +314,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 4 2" xfId="7"/>
-    <cellStyle name="Normal 5" xfId="8"/>
-    <cellStyle name="Normal 8" xfId="9"/>
-    <cellStyle name="Normal 9 2" xfId="10"/>
-    <cellStyle name="Normale_B2020" xfId="11"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="13"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 9 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normale_B2020" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1353,14 +1345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J65536"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1602,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
